--- a/biology/Médecine/André_Boeckel/André_Boeckel.xlsx
+++ b/biology/Médecine/André_Boeckel/André_Boeckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Boeckel</t>
+          <t>André_Boeckel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Marcel André Bœckel, né le 16 juin 1882 à Strasbourg (District de Basse-Alsace) et mort à 23 mars 1933 à Strasbourg (Bas-Rhin), est un médecin et chirurgien français spécialiste d'urologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Boeckel</t>
+          <t>André_Boeckel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études au Gymnase Jean Sturm mais les poursuit à Nancy pour fuir l'Alsace annexée. Il est externe des Hôpitaux de Paris en 1907 où il rencontre Félix Legueu, puis interne et chef de clinique urologique (1910-1912) à Nancy. Mobilisé pendant toute la Grande Guerre, il est envoyé au front dans la Somme, à Ypres, en Roumanie puis en Italie.
 Après la guerre, il est le collaborateur de Louis Sencert puis de René Leriche à la Faculté de médecine de Strasbourg. Il crée et prend la direction du service d'urologie de la clinique chirurgicale A. Il est victime d'une septicémie contractée après une blessure lors d'une opération d'un
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Boeckel</t>
+          <t>André_Boeckel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Croix de guerre
 Chevalier de la Légion d'honneur
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Boeckel</t>
+          <t>André_Boeckel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Valeur de la néphrectomie dans la tuberculose rénale, Chapelot (Paris), 1912, 1 vol. (756 p.) : fig., 5 pl. h. t. ; In-8.
 Un cas d'incontinence d'urine rebelle, guéri rapidement par le traitement antisyphilitique, [Extrait du Bulletin de l'Association française d'urologie, Doin (Paris), 1919, 1 vol. (5 p.) ; In-8.
